--- a/lab8/Книга1.xlsx
+++ b/lab8/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\files\5sem_Operations_research\lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF92A19A-8A03-4BE1-AEE1-F63F396E9408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A588A854-2233-45C7-9661-F5832AC71F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB703179-7D6E-4ACC-88A8-2FBF1A15F24E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Вальд</t>
   </si>
@@ -84,6 +84,33 @@
   </si>
   <si>
     <t>В условиях определенности</t>
+  </si>
+  <si>
+    <t>лаплас</t>
+  </si>
+  <si>
+    <t>Ответ</t>
+  </si>
+  <si>
+    <t>Критерий</t>
+  </si>
+  <si>
+    <t>Данные</t>
+  </si>
+  <si>
+    <t>Вероятности состояния строса</t>
+  </si>
+  <si>
+    <t>сумма</t>
+  </si>
+  <si>
+    <t>максимум=</t>
+  </si>
+  <si>
+    <t>При определенности</t>
+  </si>
+  <si>
+    <t>Миниму=</t>
   </si>
 </sst>
 </file>
@@ -100,15 +127,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -141,6 +174,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -149,11 +197,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -488,41 +538,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEC28E3-BC9C-4136-972A-E4A2BB3D3B34}">
-  <dimension ref="B4:T32"/>
+  <dimension ref="B1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="K4" t="s">
         <v>3</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C5">
+      <c r="V4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5">
         <v>72</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>60</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>54</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>65</v>
       </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="L5">
         <f>C5</f>
         <v>72</v>
@@ -543,20 +651,32 @@
         <f>AVERAGE(L5:O5)</f>
         <v>62.75</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C6">
+      <c r="V5" t="b">
+        <f>$R$6=P5</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>IF(V5,W4+1,W4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
         <v>53</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>49</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>67</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>74</v>
       </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="L6">
         <f>C6</f>
         <v>53</v>
@@ -584,20 +704,35 @@
         <f>MAX(P5:P8)</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C7">
+      <c r="V6" t="b">
+        <f t="shared" ref="V6:V8" si="1">$R$6=P6</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W8" si="2">IF(V6,W5+1,W5)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5">
         <v>64</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>78</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>51</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>67</v>
       </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="L7">
         <f>C7</f>
         <v>64</v>
@@ -618,20 +753,36 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C8">
+      <c r="V7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f>COUNT(W5:W8)-COUNTIF(W5:W8,"&gt;0")+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
         <v>60</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>49</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>73</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>54</v>
       </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="L8">
         <f>C8</f>
         <v>60</v>
@@ -652,8 +803,32 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="V8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="K11" t="s">
         <v>6</v>
       </c>
@@ -672,28 +847,45 @@
       <c r="R11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>1</v>
+      <c r="V11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f>C5</f>
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <f>D5</f>
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <f>E5</f>
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <f>F5</f>
+        <v>65</v>
+      </c>
+      <c r="G12" s="2">
+        <f>MIN(C12:F12)</f>
+        <v>54</v>
       </c>
       <c r="L12">
         <f>C5</f>
         <v>72</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:O12" si="1">D5</f>
+        <f>D5</f>
         <v>60</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f>E5</f>
         <v>54</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f>F5</f>
         <v>65</v>
       </c>
       <c r="P12" s="3">
@@ -708,54 +900,69 @@
         <f>P12*(1-$N$11)+Q12*$N$11</f>
         <v>66.599999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="V12" t="b">
+        <f>$I$13=G12</f>
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <f>IF(V12,W11+1,W11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C13">
-        <f>C5</f>
-        <v>72</v>
+        <f>C6</f>
+        <v>53</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:F13" si="2">D5</f>
-        <v>60</v>
+        <f>D6</f>
+        <v>49</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f>E6</f>
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <f>F6</f>
+        <v>74</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13:G15" si="3">MIN(C13:F13)</f>
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f>MAX(G12:G15)</f>
         <v>54</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="G13" s="2">
-        <f>MIN(C13:F13)</f>
-        <v>54</v>
-      </c>
       <c r="L13">
-        <f t="shared" ref="L13:L15" si="3">C6</f>
+        <f>C6</f>
         <v>53</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M15" si="4">D6</f>
+        <f>D6</f>
         <v>49</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:N15" si="5">E6</f>
+        <f>E6</f>
         <v>67</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O15" si="6">F6</f>
+        <f>F6</f>
         <v>74</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" ref="P13:P15" si="7">MAX(L13:O13)</f>
+        <f t="shared" ref="P13:P15" si="4">MAX(L13:O13)</f>
         <v>74</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" ref="Q13:Q15" si="8">MIN(L13:O13)</f>
+        <f t="shared" ref="Q13:Q15" si="5">MIN(L13:O13)</f>
         <v>49</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:R15" si="9">P13*(1-$N$11)+Q13*$N$11</f>
+        <f t="shared" ref="R13:R15" si="6">P13*(1-$N$11)+Q13*$N$11</f>
         <v>66.5</v>
       </c>
       <c r="S13" t="s">
@@ -765,338 +972,613 @@
         <f>MAX(R12:R15)</f>
         <v>69.899999999999991</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="V13" t="b">
+        <f>$I$13=G13</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ref="W13:W15" si="7">IF(V13,W12+1,W12)</f>
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C14">
-        <f t="shared" ref="C14:F14" si="10">C6</f>
-        <v>53</v>
+        <f>C7</f>
+        <v>64</v>
       </c>
       <c r="D14">
-        <f t="shared" si="10"/>
-        <v>49</v>
+        <f>D7</f>
+        <v>78</v>
       </c>
       <c r="E14">
-        <f t="shared" si="10"/>
+        <f>E7</f>
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <f>F7</f>
         <v>67</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="10"/>
-        <v>74</v>
-      </c>
       <c r="G14" s="2">
-        <f t="shared" ref="G14:G16" si="11">MIN(C14:F14)</f>
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <f>MAX(G13:G16)</f>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f>C7</f>
         <v>64</v>
       </c>
       <c r="M14">
+        <f>D7</f>
+        <v>78</v>
+      </c>
+      <c r="N14">
+        <f>E7</f>
+        <v>51</v>
+      </c>
+      <c r="O14">
+        <f>F7</f>
+        <v>67</v>
+      </c>
+      <c r="P14" s="3">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="N14">
+      <c r="Q14" s="3">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="P14" s="3">
+        <v>69.899999999999991</v>
+      </c>
+      <c r="V14" t="b">
+        <f>$I$13=G14</f>
+        <v>0</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="9"/>
-        <v>69.899999999999991</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X8:X35" si="8">COUNT(W12:W15)-COUNTIF(W12:W15,"&gt;0")+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C15">
-        <f t="shared" ref="C15:F15" si="12">C7</f>
-        <v>64</v>
+        <f>C8</f>
+        <v>60</v>
       </c>
       <c r="D15">
-        <f t="shared" si="12"/>
-        <v>78</v>
+        <f>D8</f>
+        <v>49</v>
       </c>
       <c r="E15">
-        <f t="shared" si="12"/>
-        <v>51</v>
+        <f>E8</f>
+        <v>73</v>
       </c>
       <c r="F15">
-        <f t="shared" si="12"/>
-        <v>67</v>
+        <f>F8</f>
+        <v>54</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="11"/>
-        <v>51</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f>C8</f>
         <v>60</v>
       </c>
       <c r="M15">
+        <f>D8</f>
+        <v>49</v>
+      </c>
+      <c r="N15">
+        <f>E8</f>
+        <v>73</v>
+      </c>
+      <c r="O15">
+        <f>F8</f>
+        <v>54</v>
+      </c>
+      <c r="P15" s="3">
         <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="O15">
+      <c r="R15">
         <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="P15" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="V15" t="b">
+        <f>$I$13=G15</f>
+        <v>0</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="7"/>
-        <v>73</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="9"/>
-        <v>65.8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <f t="shared" ref="C16:F16" si="13">C8</f>
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="13"/>
-        <v>49</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="13"/>
-        <v>73</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="13"/>
-        <v>54</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="11"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C21">
+      <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C19">
         <f>C5</f>
         <v>72</v>
       </c>
+      <c r="D19">
+        <f>D5</f>
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <f>E5</f>
+        <v>54</v>
+      </c>
+      <c r="F19">
+        <f>F5</f>
+        <v>65</v>
+      </c>
+      <c r="M19">
+        <f>C5*C$2</f>
+        <v>7.2</v>
+      </c>
+      <c r="N19">
+        <f>D5*D$2</f>
+        <v>18</v>
+      </c>
+      <c r="O19">
+        <f>E5*E$2</f>
+        <v>21.6</v>
+      </c>
+      <c r="P19">
+        <f>F5*F$2</f>
+        <v>13</v>
+      </c>
+      <c r="Q19">
+        <f>SUM(M19:P19)</f>
+        <v>59.8</v>
+      </c>
+      <c r="V19" t="b">
+        <f>$T$13=R12</f>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f>IF(V19,W18+1,W18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f>C6</f>
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <f>D6</f>
+        <v>49</v>
+      </c>
+      <c r="E20">
+        <f>E6</f>
+        <v>67</v>
+      </c>
+      <c r="F20">
+        <f>F6</f>
+        <v>74</v>
+      </c>
+      <c r="M20">
+        <f>C6*C$2</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="N20">
+        <f>D6*D$2</f>
+        <v>14.7</v>
+      </c>
+      <c r="O20">
+        <f>E6*E$2</f>
+        <v>26.8</v>
+      </c>
+      <c r="P20">
+        <f>F6*F$2</f>
+        <v>14.8</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20:Q22" si="9">SUM(M20:P20)</f>
+        <v>61.599999999999994</v>
+      </c>
+      <c r="V20" t="b">
+        <f t="shared" ref="V20:V22" si="10">$T$13=R13</f>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20:W22" si="11">IF(V20,W19+1,W19)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f>C7</f>
+        <v>64</v>
+      </c>
       <c r="D21">
-        <f t="shared" ref="D21:F21" si="14">D5</f>
+        <f>D7</f>
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <f>E7</f>
+        <v>51</v>
+      </c>
+      <c r="F21">
+        <f>F7</f>
+        <v>67</v>
+      </c>
+      <c r="M21">
+        <f>C7*C$2</f>
+        <v>6.4</v>
+      </c>
+      <c r="N21">
+        <f>D7*D$2</f>
+        <v>23.4</v>
+      </c>
+      <c r="O21">
+        <f>E7*E$2</f>
+        <v>20.400000000000002</v>
+      </c>
+      <c r="P21">
+        <f>F7*F$2</f>
+        <v>13.4</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="9"/>
+        <v>63.6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21">
+        <f>MAX(Q19:Q22)</f>
+        <v>63.6</v>
+      </c>
+      <c r="V21" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <f>C8</f>
         <v>60</v>
       </c>
-      <c r="E21">
+      <c r="D22">
+        <f>D8</f>
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <f>E8</f>
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <f>F8</f>
+        <v>54</v>
+      </c>
+      <c r="M22">
+        <f>C8*C$2</f>
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <f>D8*D$2</f>
+        <v>14.7</v>
+      </c>
+      <c r="O22">
+        <f>E8*E$2</f>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="P22">
+        <f>F8*F$2</f>
+        <v>10.8</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="9"/>
+        <v>60.7</v>
+      </c>
+      <c r="V22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1">
+        <f>MAX(C19:C22)</f>
+        <v>72</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ref="D23:F23" si="12">MAX(D19:D22)</f>
+        <v>78</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="V25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <f>C$23-C19</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>D$23-D19</f>
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <f>E$23-E19</f>
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <f>F$23-F19</f>
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <f>MAX(C26:F26)</f>
+        <v>19</v>
+      </c>
+      <c r="V26" t="b">
+        <f>$I$28=G26</f>
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <f>IF(V26,W25+1,W25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <f>C$23-C20</f>
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <f>D$23-D20</f>
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <f>E$23-E20</f>
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <f>F$23-F20</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G29" si="13">MAX(C27:F27)</f>
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="V27" t="b">
+        <f>$I$28=G27</f>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" ref="W27:W29" si="14">IF(V27,W26+1,W26)</f>
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <f>C$23-C21</f>
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <f>D$23-D21</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>E$23-E21</f>
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <f>F$23-F21</f>
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28">
+        <f>MIN(G26:G29)</f>
+        <v>19</v>
+      </c>
+      <c r="K28" t="str">
+        <f>V4</f>
+        <v>лаплас</v>
+      </c>
+      <c r="L28">
+        <f>X7</f>
+        <v>3</v>
+      </c>
+      <c r="V28" t="b">
+        <f>$I$28=G28</f>
+        <v>0</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="14"/>
-        <v>54</v>
-      </c>
-      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <f>C$23-C22</f>
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <f>D$23-D22</f>
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <f>E$23-E22</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>F$23-F22</f>
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="K29" t="str">
+        <f>V11</f>
+        <v>Вальд</v>
+      </c>
+      <c r="L29">
+        <f>X14</f>
+        <v>1</v>
+      </c>
+      <c r="V29" t="b">
+        <f>$I$28=G29</f>
+        <v>0</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="14"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <f t="shared" ref="C22:F22" si="15">C6</f>
-        <v>53</v>
-      </c>
-      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="K30" t="str">
+        <f>V18</f>
+        <v>Гурвиц</v>
+      </c>
+      <c r="L30">
+        <f>X21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="K31" t="str">
+        <f>V25</f>
+        <v>Сэвидж</v>
+      </c>
+      <c r="L31">
+        <f>X28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="K32" t="str">
+        <f>V32</f>
+        <v>При определенности</v>
+      </c>
+      <c r="L32">
+        <f>X35</f>
+        <v>3</v>
+      </c>
+      <c r="V32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="22:24" x14ac:dyDescent="0.3">
+      <c r="V33" t="b">
+        <f>$S$21=Q19</f>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>IF(V33,W32+1,W32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="22:24" x14ac:dyDescent="0.3">
+      <c r="V34" t="b">
+        <f>$S$21=Q20</f>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W36" si="15">IF(V34,W33+1,W33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="22:24" x14ac:dyDescent="0.3">
+      <c r="V35" t="b">
+        <f>$S$21=Q21</f>
+        <v>1</v>
+      </c>
+      <c r="W35">
         <f t="shared" si="15"/>
-        <v>49</v>
-      </c>
-      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="22:24" x14ac:dyDescent="0.3">
+      <c r="V36" t="b">
+        <f>$S$21=Q22</f>
+        <v>0</v>
+      </c>
+      <c r="W36">
         <f t="shared" si="15"/>
-        <v>67</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="15"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <f t="shared" ref="C23:F23" si="16">C7</f>
-        <v>64</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="16"/>
-        <v>78</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="16"/>
-        <v>51</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="16"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <f t="shared" ref="C24:F24" si="17">C8</f>
-        <v>60</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="17"/>
-        <v>49</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="17"/>
-        <v>73</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="17"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1">
-        <f>MAX(C21:C24)</f>
-        <v>72</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" ref="D25:F25" si="18">MAX(D21:D24)</f>
-        <v>78</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="18"/>
-        <v>73</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="18"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <f>C$25-C21</f>
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ref="D29:F29" si="19">D$25-D21</f>
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="19"/>
-        <v>19</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="G29">
-        <f>MAX(C29:F29)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <f t="shared" ref="C30:F30" si="20">C$25-C22</f>
-        <v>19</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="20"/>
-        <v>29</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ref="G30:G32" si="21">MAX(C30:F30)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <f t="shared" ref="C31:F31" si="22">C$25-C23</f>
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="22"/>
-        <v>22</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="21"/>
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31">
-        <f>MAX(G29:G32)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <f t="shared" ref="C32:F32" si="23">C$25-C24</f>
-        <v>12</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="23"/>
-        <v>29</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="23"/>
-        <v>20</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="21"/>
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
